--- a/plantillasSap/15122022/6211-15122022.xlsx
+++ b/plantillasSap/15122022/6211-15122022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -722,10 +722,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="n">
-        <v>66148.22</v>
+        <v>168879.53</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>168879.53</v>
+        <v>143137.14</v>
       </c>
       <c r="C9" s="18" t="n"/>
       <c r="D9" s="20" t="n"/>
@@ -839,12 +839,12 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13713-92049</t>
+          <t>7754-247705</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3408</v>
+        <v>2674.7</v>
       </c>
       <c r="F17" s="14" t="n"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24130</t>
+          <t>24173</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -884,33 +884,33 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-676.6900000000001</v>
+        <v>-24965.92</v>
       </c>
       <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6942-1210563</t>
+          <t>24168</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-CREDITO ACH - VALOR CREDITO-Originador ACH</t>
+          <t>-PAGO CHEQUE POR VENTANILLA-Originador ACH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Z001</t>
+          <t>Z002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>-3451.17</v>
       </c>
       <c r="F19" s="14" t="n"/>
     </row>
